--- a/examples/input/teste.xlsx
+++ b/examples/input/teste.xlsx
@@ -20,65 +20,304 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">10/01/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsdfds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2039</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+  <si>
+    <t xml:space="preserve">GROEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_B_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OHNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDF03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHEIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSITZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KORB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S205EKBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHV18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSEIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEL01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJKSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJLHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OELKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAL3020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOSTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STZS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZYL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWERK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOWI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-jun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EH001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR24S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,11 +339,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +388,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,177 +581,983 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>1249681</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1500</v>
+    </row>
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
